--- a/projects/va_emerging_tech/negative_emission_tech/data/scenarios_emerging_tech.xlsx
+++ b/projects/va_emerging_tech/negative_emission_tech/data/scenarios_emerging_tech.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC588E48-3CB1-4551-8F02-09D0C1200D7A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59EE35A-19F1-47D1-AA03-A0DD11457BFE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="5" r:id="rId1"/>
@@ -1125,13 +1125,13 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="136.21875" customWidth="1"/>
+    <col min="1" max="1" width="13.41796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="136.20703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="7" t="s">
         <v>40</v>
       </c>
@@ -1146,7 +1146,7 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -1154,68 +1154,68 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="6"/>
       <c r="B4" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="6"/>
       <c r="B6" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="6"/>
       <c r="B7" s="6" t="s">
         <v>54</v>
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="6"/>
       <c r="B8" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="6"/>
       <c r="B9" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="6"/>
       <c r="B11" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="6"/>
       <c r="B12" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="6"/>
       <c r="B13" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="9" t="s">
         <v>37</v>
       </c>
@@ -1223,19 +1223,19 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="10"/>
       <c r="B16" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="10"/>
       <c r="B17" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="11" t="s">
         <v>38</v>
       </c>
@@ -1243,19 +1243,19 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="12"/>
       <c r="B20" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="12"/>
       <c r="B21" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="13" t="s">
         <v>39</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="14"/>
       <c r="B24" s="14" t="s">
         <v>44</v>
@@ -1283,15 +1283,15 @@
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7890625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7890625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7890625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.5234375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.41796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>64</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="14" t="s">
         <v>19</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="14" t="s">
         <v>21</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="14" t="s">
         <v>22</v>
       </c>
@@ -1509,18 +1509,18 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7890625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.3125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7890625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.5234375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.41796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="16" t="s">
         <v>72</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="16" t="s">
         <v>2</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="16" t="s">
         <v>97</v>
       </c>
@@ -1605,7 +1605,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="16" t="s">
         <v>98</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="16" t="s">
         <v>99</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="16" t="s">
         <v>100</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="16" t="s">
         <v>32</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="16" t="s">
         <v>71</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="16" t="s">
         <v>34</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="16" t="s">
         <v>3</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="17" t="s">
         <v>78</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="17" t="s">
         <v>88</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="17" t="s">
         <v>4</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="17" t="s">
         <v>30</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="17" t="s">
         <v>77</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="17" t="s">
         <v>76</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="17" t="s">
         <v>5</v>
       </c>
@@ -1827,7 +1827,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="17" t="s">
         <v>96</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="17" t="s">
         <v>89</v>
       </c>
@@ -1853,13 +1853,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="17" t="s">
         <v>79</v>
       </c>
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="17" t="s">
         <v>29</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="17" t="s">
         <v>35</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="17" t="s">
         <v>90</v>
       </c>
@@ -1906,7 +1906,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="17" t="s">
         <v>93</v>
       </c>
@@ -1923,7 +1923,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="17" t="s">
         <v>94</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="16" t="s">
         <v>91</v>
       </c>
@@ -1957,7 +1957,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="16" t="s">
         <v>92</v>
       </c>
@@ -1974,7 +1974,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="14" t="s">
         <v>82</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="14" t="s">
         <v>80</v>
       </c>
@@ -1998,26 +1998,26 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="14" t="s">
         <v>95</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="14" t="s">
         <v>81</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2072,42 +2072,42 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2124,15 +2124,15 @@
       <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7890625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.3125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7890625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.5234375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.41796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -2183,7 +2183,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -2268,7 +2268,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -2287,27 +2287,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F2:XFD4 B3:E4 B5:XFD1048576">
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="16" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="14" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="13" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="11" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2323,15 +2323,15 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7890625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.68359375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7890625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.5234375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.41796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2348,7 +2348,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -2433,32 +2433,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>68</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>69</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>70</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>73</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>60</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>74</v>
       </c>
@@ -2548,7 +2548,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>61</v>
       </c>
@@ -2559,7 +2559,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>75</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>83</v>
       </c>
@@ -2583,12 +2583,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:E19 F2:XFD1048576 B21:E1048576 B20:C20">
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:E20">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/projects/va_emerging_tech/negative_emission_tech/data/scenarios_emerging_tech.xlsx
+++ b/projects/va_emerging_tech/negative_emission_tech/data/scenarios_emerging_tech.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59EE35A-19F1-47D1-AA03-A0DD11457BFE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35005DCA-27B3-4366-9EF1-524BB03EADB3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="99">
   <si>
     <t>Scenario</t>
   </si>
@@ -478,18 +478,6 @@
     <t>DAC_TO_DEMAND</t>
   </si>
   <si>
-    <t>woEmerg_woFossil</t>
-  </si>
-  <si>
-    <t>woEmerg_wFossil</t>
-  </si>
-  <si>
-    <t>wEmerg_woFossil</t>
-  </si>
-  <si>
-    <t>wEmerg_wFossil</t>
-  </si>
-  <si>
     <t>EC_BATT_4hr</t>
   </si>
   <si>
@@ -527,6 +515,12 @@
   </si>
   <si>
     <t>EX_NG_CT2</t>
+  </si>
+  <si>
+    <t>woFossil</t>
+  </si>
+  <si>
+    <t>wFossil</t>
   </si>
 </sst>
 </file>
@@ -639,126 +633,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill>
@@ -1277,10 +1152,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7890625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1291,24 +1166,18 @@
     <col min="5" max="5" width="15.41796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1318,31 +1187,21 @@
       <c r="C2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="15" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1352,14 +1211,10 @@
       <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1369,14 +1224,8 @@
       <c r="C5">
         <v>30</v>
       </c>
-      <c r="D5">
-        <v>30</v>
-      </c>
-      <c r="E5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -1386,14 +1235,8 @@
       <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -1403,14 +1246,8 @@
       <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>64</v>
       </c>
@@ -1420,14 +1257,8 @@
       <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="14" t="s">
         <v>19</v>
       </c>
@@ -1437,14 +1268,8 @@
       <c r="C9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="14" t="s">
         <v>21</v>
       </c>
@@ -1454,14 +1279,8 @@
       <c r="C10" s="14">
         <v>20</v>
       </c>
-      <c r="D10" s="14">
-        <v>20</v>
-      </c>
-      <c r="E10" s="14">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="14" t="s">
         <v>22</v>
       </c>
@@ -1471,31 +1290,15 @@
       <c r="C11" s="14">
         <v>1000</v>
       </c>
-      <c r="D11" s="14">
-        <v>1000</v>
-      </c>
-      <c r="E11" s="14">
-        <v>1000</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:XFD9">
-    <cfRule type="cellIs" dxfId="28" priority="12" operator="equal">
+  <conditionalFormatting sqref="C2:C9 F2:XFD7 E8:XFD9">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B9">
-    <cfRule type="cellIs" dxfId="27" priority="7" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C9">
-    <cfRule type="cellIs" dxfId="26" priority="6" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D9">
-    <cfRule type="cellIs" dxfId="25" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1506,10 +1309,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7890625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1520,24 +1323,18 @@
     <col min="5" max="5" width="15.41796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="16" t="s">
         <v>72</v>
       </c>
@@ -1547,14 +1344,10 @@
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
@@ -1564,14 +1357,10 @@
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="16" t="s">
         <v>2</v>
       </c>
@@ -1581,16 +1370,12 @@
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
@@ -1598,16 +1383,12 @@
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="16" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
@@ -1615,16 +1396,12 @@
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="16" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>9</v>
@@ -1632,16 +1409,12 @@
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="16" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>9</v>
@@ -1649,14 +1422,10 @@
       <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="16" t="s">
         <v>32</v>
       </c>
@@ -1666,14 +1435,10 @@
       <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="16" t="s">
         <v>71</v>
       </c>
@@ -1683,14 +1448,10 @@
       <c r="C10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="16" t="s">
         <v>34</v>
       </c>
@@ -1700,14 +1461,10 @@
       <c r="C11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="16" t="s">
         <v>3</v>
       </c>
@@ -1717,14 +1474,10 @@
       <c r="C12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="17" t="s">
         <v>78</v>
       </c>
@@ -1734,16 +1487,12 @@
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="17" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>9</v>
@@ -1751,14 +1500,10 @@
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="17" t="s">
         <v>4</v>
       </c>
@@ -1768,14 +1513,10 @@
       <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="17" t="s">
         <v>30</v>
       </c>
@@ -1783,12 +1524,10 @@
       <c r="C16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="17" t="s">
         <v>77</v>
       </c>
@@ -1796,12 +1535,10 @@
       <c r="C17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="17" t="s">
         <v>76</v>
       </c>
@@ -1809,12 +1546,10 @@
       <c r="C18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="17" t="s">
         <v>5</v>
       </c>
@@ -1822,44 +1557,37 @@
       <c r="C19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="17" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="17" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="17" t="s">
         <v>29</v>
       </c>
@@ -1867,12 +1595,10 @@
       <c r="C23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="17" t="s">
         <v>35</v>
       </c>
@@ -1882,67 +1608,49 @@
       <c r="C24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="16" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B28" t="s">
         <v>9</v>
@@ -1950,16 +1658,12 @@
       <c r="C28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D28" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="16" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>9</v>
@@ -1967,147 +1671,89 @@
       <c r="C29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="D32" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:E5 B26 B27:C29 B28:D28 F2:XFD29 B30:XFD1048576 D23:E23 C17:E21 C23:C25 D25:E29 E24 E9:E15 E7">
-    <cfRule type="cellIs" dxfId="24" priority="30" operator="equal">
+  <conditionalFormatting sqref="B34:XFD1048576 H2:XFD33 B23:C23 B17:C21 C24 F23:G33 B25:C33 F2:G21 C2:C16">
+    <cfRule type="cellIs" dxfId="9" priority="30" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B5 B17:B25 B9:B15 B7">
-    <cfRule type="cellIs" dxfId="23" priority="28" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="22" priority="27" operator="equal">
+  <conditionalFormatting sqref="B2:B5 B9:B15 B7">
+    <cfRule type="cellIs" dxfId="8" priority="22" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="cellIs" dxfId="21" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="21" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
-    <cfRule type="cellIs" dxfId="20" priority="25" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C5 C9:C15 C7">
-    <cfRule type="cellIs" dxfId="19" priority="24" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="cellIs" dxfId="18" priority="23" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D5 D9:D15 D7">
-    <cfRule type="cellIs" dxfId="17" priority="22" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="16" priority="21" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
-    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
+  <conditionalFormatting sqref="B24">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2121,7 +1767,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7890625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2137,16 +1783,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2159,12 +1799,8 @@
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
@@ -2176,12 +1812,8 @@
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
@@ -2193,12 +1825,8 @@
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
@@ -2210,12 +1838,6 @@
       <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
@@ -2227,12 +1849,6 @@
       <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
@@ -2244,12 +1860,8 @@
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
@@ -2261,12 +1873,6 @@
       <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
@@ -2278,36 +1884,20 @@
       <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:XFD4 B3:E4 B5:XFD1048576">
-    <cfRule type="cellIs" dxfId="6" priority="16" operator="equal">
+  <conditionalFormatting sqref="B10:XFD1048576 H2:XFD9 B3:E9">
+    <cfRule type="cellIs" dxfId="3" priority="16" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
-    <cfRule type="cellIs" dxfId="5" priority="14" operator="equal">
+  <conditionalFormatting sqref="C2:E2">
+    <cfRule type="cellIs" dxfId="2" priority="14" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="4" priority="13" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="3" priority="11" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2">
-    <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2317,10 +1907,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7890625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2331,24 +1921,18 @@
     <col min="5" max="5" width="15.41796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2358,14 +1942,8 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -2375,14 +1953,8 @@
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -2392,14 +1964,8 @@
       <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -2409,14 +1975,8 @@
       <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -2426,39 +1986,33 @@
       <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>68</v>
       </c>
@@ -2468,14 +2022,8 @@
       <c r="C12" t="s">
         <v>9</v>
       </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>69</v>
       </c>
@@ -2485,14 +2033,8 @@
       <c r="C13" t="s">
         <v>9</v>
       </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>70</v>
       </c>
@@ -2502,14 +2044,8 @@
       <c r="C14" t="s">
         <v>9</v>
       </c>
-      <c r="D14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>73</v>
       </c>
@@ -2519,76 +2055,59 @@
       <c r="C15" t="s">
         <v>9</v>
       </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>60</v>
       </c>
-      <c r="D16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>74</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
       </c>
-      <c r="E17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>61</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
-      <c r="E18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>75</v>
       </c>
-      <c r="D19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>83</v>
       </c>
-      <c r="D20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:E19 F2:XFD1048576 B21:E1048576 B20:C20">
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20:E20">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+  <conditionalFormatting sqref="B21:XFD1048576 F2:XFD20 B2:C20">
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
